--- a/artfynd/A 11591-2020.xlsx
+++ b/artfynd/A 11591-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13287006</v>
+        <v>1594942</v>
       </c>
       <c r="B2" t="n">
-        <v>4348</v>
+        <v>89356</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,47 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>102232</v>
+        <v>5447</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bredkantad dykare</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dytiscus latissimus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>i vatten/simmande</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Vad, Dlr</t>
+          <t>Mäsberget, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>537326.3354731036</v>
+        <v>537493.0751214139</v>
       </c>
       <c r="R2" t="n">
-        <v>6654468.857314383</v>
+        <v>6654714.474841843</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -760,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2007-04-30</t>
+          <t>2011-09-24</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -770,17 +760,12 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2007-04-30</t>
+          <t>2011-09-24</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Observatör: Mattias Sterner, under inventering av större vattensalamander på uppdrag av Länsstyresen Dalarna.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,25 +777,40 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Blandskog</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>blandbarrskog nedanför hällmarker</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>klen granlåga</t>
+        </is>
+      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Tim Hipkiss</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Via Tim Hipkiss</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1594942</v>
+        <v>13287006</v>
       </c>
       <c r="B3" t="n">
-        <v>89356</v>
+        <v>4348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -823,37 +823,47 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5447</v>
+        <v>102232</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Bredkantad dykare</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Dytiscus latissimus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>i vatten/simmande</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Mäsberget, Dlr</t>
+          <t>Vad, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>537493.0751214139</v>
+        <v>537326.3354731036</v>
       </c>
       <c r="R3" t="n">
-        <v>6654714.474841843</v>
+        <v>6654468.857314383</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -877,7 +887,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2011-09-24</t>
+          <t>2007-04-30</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -887,12 +897,17 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2011-09-24</t>
+          <t>2007-04-30</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Observatör: Mattias Sterner, under inventering av större vattensalamander på uppdrag av Länsstyresen Dalarna.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,30 +919,15 @@
       <c r="AG3" t="b">
         <v>0</v>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>Blandskog</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>blandbarrskog nedanför hällmarker</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>klen granlåga</t>
-        </is>
-      </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Janolof Hermansson</t>
+          <t>Tim Hipkiss</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Janolof Hermansson</t>
+          <t>Via Tim Hipkiss</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>

--- a/artfynd/A 11591-2020.xlsx
+++ b/artfynd/A 11591-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1594942</v>
+        <v>13287006</v>
       </c>
       <c r="B2" t="n">
-        <v>89356</v>
+        <v>4348</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,47 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5447</v>
+        <v>102232</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Bredkantad dykare</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Dytiscus latissimus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>i vatten/simmande</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Mäsberget, Dlr</t>
+          <t>Vad, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>537493.0751214139</v>
+        <v>537326.3354731036</v>
       </c>
       <c r="R2" t="n">
-        <v>6654714.474841843</v>
+        <v>6654468.857314383</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +760,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2011-09-24</t>
+          <t>2007-04-30</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,12 +770,17 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2011-09-24</t>
+          <t>2007-04-30</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Observatör: Mattias Sterner, under inventering av större vattensalamander på uppdrag av Länsstyresen Dalarna.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -777,40 +792,25 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>Blandskog</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>blandbarrskog nedanför hällmarker</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>klen granlåga</t>
-        </is>
-      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Janolof Hermansson</t>
+          <t>Tim Hipkiss</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Janolof Hermansson</t>
+          <t>Via Tim Hipkiss</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13287006</v>
+        <v>1594942</v>
       </c>
       <c r="B3" t="n">
-        <v>4348</v>
+        <v>89356</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -823,47 +823,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>102232</v>
+        <v>5447</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bredkantad dykare</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dytiscus latissimus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>i vatten/simmande</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Vad, Dlr</t>
+          <t>Mäsberget, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>537326.3354731036</v>
+        <v>537493.0751214139</v>
       </c>
       <c r="R3" t="n">
-        <v>6654468.857314383</v>
+        <v>6654714.474841843</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -887,7 +877,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2007-04-30</t>
+          <t>2011-09-24</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -897,17 +887,12 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2007-04-30</t>
+          <t>2011-09-24</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Observatör: Mattias Sterner, under inventering av större vattensalamander på uppdrag av Länsstyresen Dalarna.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -919,15 +904,30 @@
       <c r="AG3" t="b">
         <v>0</v>
       </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Blandskog</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>blandbarrskog nedanför hällmarker</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>klen granlåga</t>
+        </is>
+      </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Tim Hipkiss</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Via Tim Hipkiss</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
